--- a/data/trans_orig/P19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8032E3CB-1BAE-4B68-AE8B-1A4DA454EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA62968-39FD-4328-B4B8-6CDBDBED9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5213B1F1-CC70-4287-A72D-0D598AA3725A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3957C8CE-E5D1-4F26-9A2E-1C50C9AEF904}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>40,97%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>44,45%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>59,03%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
   </si>
   <si>
     <t>55,55%</t>
   </si>
   <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1447 +140,1417 @@
     <t>32,78%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>35,58%</t>
   </si>
   <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
     <t>33,1%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>66,9%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>66,31%</t>
   </si>
   <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>63,04%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
+    <t>66,33%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>36,96%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>33,67%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>38,13%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>51,69%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
   </si>
   <si>
     <t>48,31%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>46,04%</t>
   </si>
   <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>41,6%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
   </si>
   <si>
     <t>53,96%</t>
   </si>
   <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>56,6%</t>
   </si>
   <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C30568-5C15-4D15-9DFB-29BE70BC497B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6E89C4-8F1F-45E4-AA24-EF19E08E222B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,7 +3064,7 @@
         <v>1695</v>
       </c>
       <c r="D23" s="7">
-        <v>1723914</v>
+        <v>1723915</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3145,7 +3115,7 @@
         <v>2408</v>
       </c>
       <c r="D24" s="7">
-        <v>2456245</v>
+        <v>2456246</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3211,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5C141-326F-4886-8E5B-2E57E7C139AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D8A300-1012-4D65-B709-BBF47E439E8E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3368,7 @@
         <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>200964</v>
+        <v>200965</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>158</v>
@@ -3449,7 +3419,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3678,10 +3648,10 @@
         <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3666,13 @@
         <v>408844</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>384</v>
@@ -3711,13 +3681,13 @@
         <v>408222</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>777</v>
@@ -3726,13 +3696,13 @@
         <v>817066</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3770,13 @@
         <v>142362</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -3815,13 +3785,13 @@
         <v>191092</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -3830,13 +3800,13 @@
         <v>333454</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,16 +3818,16 @@
         <v>358</v>
       </c>
       <c r="D14" s="7">
-        <v>400478</v>
+        <v>400477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3866,13 +3836,13 @@
         <v>371188</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -3881,13 +3851,13 @@
         <v>771665</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3869,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3955,13 +3925,13 @@
         <v>91513</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3970,13 +3940,13 @@
         <v>107970</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3985,13 +3955,13 @@
         <v>199482</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3976,13 @@
         <v>269797</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -4021,13 +3991,13 @@
         <v>282745</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4036,13 +4006,13 @@
         <v>552543</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4080,13 @@
         <v>69954</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -4125,13 +4095,13 @@
         <v>127682</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>183</v>
@@ -4140,13 +4110,13 @@
         <v>197636</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4131,13 @@
         <v>377462</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -4176,13 +4146,13 @@
         <v>475320</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>785</v>
@@ -4191,13 +4161,13 @@
         <v>852782</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4235,13 @@
         <v>857768</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>998</v>
@@ -4280,13 +4250,13 @@
         <v>1076613</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1799</v>
@@ -4295,13 +4265,13 @@
         <v>1934381</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,28 +4286,28 @@
         <v>2056890</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1916</v>
       </c>
       <c r="I23" s="7">
-        <v>2068681</v>
+        <v>2068682</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>3851</v>
@@ -4346,13 +4316,13 @@
         <v>4125572</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4349,7 @@
         <v>2914</v>
       </c>
       <c r="I24" s="7">
-        <v>3145294</v>
+        <v>3145295</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4430,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE86FB06-B197-4C71-879B-22AF2A715221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D9FA7E-EA65-4A65-8157-AC52C17E1EAC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4524,13 @@
         <v>186311</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>193</v>
@@ -4569,13 +4539,13 @@
         <v>189524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="M4" s="7">
         <v>367</v>
@@ -4584,13 +4554,13 @@
         <v>375836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4575,13 @@
         <v>166529</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -4620,13 +4590,13 @@
         <v>162406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -4635,13 +4605,13 @@
         <v>328934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4679,13 @@
         <v>197645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -4724,13 +4694,13 @@
         <v>222579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>425</v>
@@ -4739,13 +4709,13 @@
         <v>420224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4730,13 @@
         <v>295433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>278</v>
@@ -4775,13 +4745,13 @@
         <v>274141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>560</v>
@@ -4790,13 +4760,13 @@
         <v>569573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4834,13 @@
         <v>227284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>271</v>
@@ -4879,13 +4849,13 @@
         <v>268944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -4894,13 +4864,13 @@
         <v>496228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4885,13 @@
         <v>330576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4930,13 +4900,13 @@
         <v>304136</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>620</v>
@@ -4945,13 +4915,13 @@
         <v>634712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +4989,13 @@
         <v>215039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -5034,13 +5004,13 @@
         <v>238626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>417</v>
@@ -5049,13 +5019,13 @@
         <v>453666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5040,13 @@
         <v>297333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -5085,13 +5055,13 @@
         <v>306258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -5100,13 +5070,13 @@
         <v>603590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5144,13 @@
         <v>133038</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -5189,13 +5159,13 @@
         <v>154676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -5204,13 +5174,13 @@
         <v>287714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5195,13 @@
         <v>237964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -5240,13 +5210,13 @@
         <v>241197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -5255,13 +5225,13 @@
         <v>479161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5299,13 @@
         <v>127086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -5344,13 +5314,13 @@
         <v>169323</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>283</v>
@@ -5359,13 +5329,13 @@
         <v>296409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5350,13 @@
         <v>250096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -5395,13 +5365,13 @@
         <v>335504</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>548</v>
@@ -5410,13 +5380,13 @@
         <v>585600</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5454,13 @@
         <v>1086404</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1199</v>
@@ -5499,13 +5469,13 @@
         <v>1243673</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>2232</v>
@@ -5514,13 +5484,13 @@
         <v>2330077</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,16 +5502,16 @@
         <v>1497</v>
       </c>
       <c r="D23" s="7">
-        <v>1577930</v>
+        <v>1577929</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>1528</v>
@@ -5550,28 +5520,28 @@
         <v>1623642</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M23" s="7">
         <v>3025</v>
       </c>
       <c r="N23" s="7">
-        <v>3201572</v>
+        <v>3201571</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5553,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5613,7 +5583,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5649,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6865A8-BEF6-4445-82A1-4CC386B174FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25CC73-8EBF-429D-B5A4-BEBE5DC1CEEC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5791,10 +5761,10 @@
         <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>261</v>
@@ -5803,13 +5773,13 @@
         <v>501931</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5794,13 @@
         <v>110539</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -5839,13 +5809,13 @@
         <v>89784</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -5854,13 +5824,13 @@
         <v>200323</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5898,13 @@
         <v>266598</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -5943,13 +5913,13 @@
         <v>322945</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M7" s="7">
         <v>490</v>
@@ -5958,13 +5928,13 @@
         <v>589543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5949,13 @@
         <v>140602</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -5994,13 +5964,13 @@
         <v>162930</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -6009,13 +5979,13 @@
         <v>303532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6053,13 @@
         <v>329070</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -6098,13 +6068,13 @@
         <v>360721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -6113,13 +6083,13 @@
         <v>689791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6104,13 @@
         <v>215285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -6149,13 +6119,13 @@
         <v>211475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>487</v>
@@ -6164,13 +6134,13 @@
         <v>426761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6208,13 @@
         <v>392861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>715</v>
@@ -6253,13 +6223,13 @@
         <v>445630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>1112</v>
@@ -6268,13 +6238,13 @@
         <v>838490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6259,13 @@
         <v>309733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -6304,13 +6274,13 @@
         <v>288177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -6319,13 +6289,13 @@
         <v>597910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6363,13 @@
         <v>302249</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>566</v>
@@ -6408,28 +6378,28 @@
         <v>328802</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>911</v>
       </c>
       <c r="N16" s="7">
-        <v>631051</v>
+        <v>631052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6414,13 @@
         <v>282521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -6459,13 +6429,13 @@
         <v>253541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
@@ -6474,13 +6444,13 @@
         <v>536062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,7 +6492,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6548,13 +6518,13 @@
         <v>313625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>766</v>
@@ -6563,13 +6533,13 @@
         <v>415186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>1218</v>
@@ -6578,13 +6548,13 @@
         <v>728812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6569,13 @@
         <v>367591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>891</v>
@@ -6614,13 +6584,13 @@
         <v>582944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>1442</v>
@@ -6629,13 +6599,13 @@
         <v>950534</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6673,13 @@
         <v>1851621</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>3035</v>
@@ -6718,13 +6688,13 @@
         <v>2127998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>4857</v>
@@ -6733,13 +6703,13 @@
         <v>3979619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6724,13 @@
         <v>1426271</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H23" s="7">
         <v>2182</v>
@@ -6769,13 +6739,13 @@
         <v>1588850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>3614</v>
@@ -6784,13 +6754,13 @@
         <v>3015121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA62968-39FD-4328-B4B8-6CDBDBED9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1036F4-8E79-4FDF-82E5-55BCBF30879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3957C8CE-E5D1-4F26-9A2E-1C50C9AEF904}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A05C7B04-F3FD-4814-9A27-164FC68B0226}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,1468 +77,1468 @@
     <t>40,97%</t>
   </si>
   <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
   </si>
   <si>
     <t>52,34%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>42,75%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
   </si>
   <si>
     <t>40,49%</t>
@@ -1962,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6E89C4-8F1F-45E4-AA24-EF19E08E222B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736CDD7-E6A3-4A07-B56E-EA77B6AC761B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D8A300-1012-4D65-B709-BBF47E439E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9DF24-B1F1-4F1E-9D14-FED3B0C05AFD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3368,7 +3368,7 @@
         <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>200965</v>
+        <v>200964</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>158</v>
@@ -3419,7 +3419,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3523,7 +3523,7 @@
         <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>330241</v>
+        <v>330242</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>176</v>
@@ -3574,7 +3574,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>559851</v>
+        <v>559852</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3648,10 +3648,10 @@
         <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3666,13 @@
         <v>408844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>384</v>
@@ -3681,13 +3681,13 @@
         <v>408222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>777</v>
@@ -3696,13 +3696,13 @@
         <v>817066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3770,13 @@
         <v>142362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -3785,13 +3785,13 @@
         <v>191092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -3800,13 +3800,13 @@
         <v>333454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,16 +3818,16 @@
         <v>358</v>
       </c>
       <c r="D14" s="7">
-        <v>400477</v>
+        <v>400478</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3836,10 +3836,10 @@
         <v>371188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>212</v>
@@ -3869,7 +3869,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4268,10 +4268,10 @@
         <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,28 +4286,28 @@
         <v>2056890</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>1916</v>
       </c>
       <c r="I23" s="7">
-        <v>2068682</v>
+        <v>2068681</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>3851</v>
@@ -4316,13 +4316,13 @@
         <v>4125572</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
         <v>2914</v>
       </c>
       <c r="I24" s="7">
-        <v>3145295</v>
+        <v>3145294</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4400,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D9FA7E-EA65-4A65-8157-AC52C17E1EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4A3B4C-054F-4BB5-8A93-574EAE5B9492}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4524,13 @@
         <v>186311</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>193</v>
@@ -4539,13 +4539,13 @@
         <v>189524</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="7">
         <v>367</v>
@@ -4554,13 +4554,13 @@
         <v>375836</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4575,13 @@
         <v>166529</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -4590,10 +4590,10 @@
         <v>162406</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>283</v>
@@ -5332,10 +5332,10 @@
         <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5350,13 @@
         <v>250096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -5365,13 +5365,13 @@
         <v>335504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>548</v>
@@ -5380,13 +5380,13 @@
         <v>585600</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5454,13 @@
         <v>1086404</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1199</v>
@@ -5469,13 +5469,13 @@
         <v>1243673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>2232</v>
@@ -5484,13 +5484,13 @@
         <v>2330077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,16 +5502,16 @@
         <v>1497</v>
       </c>
       <c r="D23" s="7">
-        <v>1577929</v>
+        <v>1577930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>1528</v>
@@ -5520,13 +5520,13 @@
         <v>1623642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>3025</v>
@@ -5535,13 +5535,13 @@
         <v>3201571</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,7 +5553,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5619,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25CC73-8EBF-429D-B5A4-BEBE5DC1CEEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084BB275-70D7-4BC0-8D1D-8AC18975B5A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5743,13 @@
         <v>247219</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -5758,13 +5758,13 @@
         <v>254712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>261</v>
@@ -5773,13 +5773,13 @@
         <v>501931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5794,13 @@
         <v>110539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -5809,13 +5809,13 @@
         <v>89784</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -5824,13 +5824,13 @@
         <v>200323</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5898,13 @@
         <v>266598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -5913,13 +5913,13 @@
         <v>322945</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>490</v>
@@ -5928,10 +5928,10 @@
         <v>589543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>213</v>
@@ -5949,13 +5949,13 @@
         <v>140602</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -5964,13 +5964,13 @@
         <v>162930</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -5979,13 +5979,13 @@
         <v>303532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6053,13 @@
         <v>329070</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -6068,13 +6068,13 @@
         <v>360721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -6083,13 +6083,13 @@
         <v>689791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6104,13 @@
         <v>215285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -6119,10 +6119,10 @@
         <v>211475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>305</v>
@@ -6134,13 +6134,13 @@
         <v>426761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,10 +6521,10 @@
         <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>766</v>
@@ -6533,13 +6533,13 @@
         <v>415186</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>1218</v>
@@ -6548,13 +6548,13 @@
         <v>728812</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>367591</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>484</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>891</v>
@@ -6584,13 +6584,13 @@
         <v>582944</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>1442</v>
@@ -6599,13 +6599,13 @@
         <v>950534</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,10 +6676,10 @@
         <v>464</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H22" s="7">
         <v>3035</v>
@@ -6688,13 +6688,13 @@
         <v>2127998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>4857</v>
@@ -6706,10 +6706,10 @@
         <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,10 +6727,10 @@
         <v>472</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H23" s="7">
         <v>2182</v>
@@ -6739,7 +6739,7 @@
         <v>1588850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>500</v>

--- a/data/trans_orig/P19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1036F4-8E79-4FDF-82E5-55BCBF30879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC4F092-CEA7-46C2-8C02-43CE2BDDEF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A05C7B04-F3FD-4814-9A27-164FC68B0226}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C29B529-FC59-4ADC-A42F-0B5A8BAA7502}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1486 +71,1516 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
   </si>
   <si>
     <t>44,45%</t>
   </si>
   <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736CDD7-E6A3-4A07-B56E-EA77B6AC761B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511345BD-7BF7-42ED-9F1A-40362696C961}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3064,7 +3094,7 @@
         <v>1695</v>
       </c>
       <c r="D23" s="7">
-        <v>1723915</v>
+        <v>1723914</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3115,7 +3145,7 @@
         <v>2408</v>
       </c>
       <c r="D24" s="7">
-        <v>2456246</v>
+        <v>2456245</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3181,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9DF24-B1F1-4F1E-9D14-FED3B0C05AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B0741D-2A1D-41C6-B8A5-F5B3C8361835}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,7 +3553,7 @@
         <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>330242</v>
+        <v>330241</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>176</v>
@@ -3574,7 +3604,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>559852</v>
+        <v>559851</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3791,7 +3821,7 @@
         <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -3800,13 +3830,13 @@
         <v>333454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3851,13 @@
         <v>400478</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3836,13 +3866,13 @@
         <v>371188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -3851,13 +3881,13 @@
         <v>771665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3955,13 @@
         <v>91513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3940,13 +3970,13 @@
         <v>107970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3955,13 +3985,13 @@
         <v>199482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4006,13 @@
         <v>269797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -3991,13 +4021,13 @@
         <v>282745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4006,13 +4036,13 @@
         <v>552543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4110,13 @@
         <v>69954</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>120</v>
@@ -4095,13 +4125,13 @@
         <v>127682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>183</v>
@@ -4110,13 +4140,13 @@
         <v>197636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4161,13 @@
         <v>377462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -4146,13 +4176,13 @@
         <v>475320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>785</v>
@@ -4161,13 +4191,13 @@
         <v>852782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4265,13 @@
         <v>857768</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>998</v>
@@ -4250,13 +4280,13 @@
         <v>1076613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1799</v>
@@ -4265,13 +4295,13 @@
         <v>1934381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4316,13 @@
         <v>2056890</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1916</v>
@@ -4301,13 +4331,13 @@
         <v>2068681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>3851</v>
@@ -4316,13 +4346,13 @@
         <v>4125572</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4A3B4C-054F-4BB5-8A93-574EAE5B9492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C82E02-43EB-410E-9D4B-8CAC3D0D8140}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4554,13 @@
         <v>186311</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>193</v>
@@ -4539,13 +4569,13 @@
         <v>189524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>367</v>
@@ -4554,13 +4584,13 @@
         <v>375836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4605,13 @@
         <v>166529</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -4590,13 +4620,13 @@
         <v>162406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -4605,13 +4635,13 @@
         <v>328934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4709,13 @@
         <v>197645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -4694,13 +4724,13 @@
         <v>222579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>425</v>
@@ -4709,13 +4739,13 @@
         <v>420224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4760,13 @@
         <v>295433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>278</v>
@@ -4745,13 +4775,13 @@
         <v>274141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>560</v>
@@ -4760,13 +4790,13 @@
         <v>569573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4864,13 @@
         <v>227284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>271</v>
@@ -4849,13 +4879,13 @@
         <v>268944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -4864,13 +4894,13 @@
         <v>496228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4915,13 @@
         <v>330576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4900,13 +4930,13 @@
         <v>304136</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>620</v>
@@ -4915,13 +4945,13 @@
         <v>634712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5019,13 @@
         <v>215039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -5004,13 +5034,13 @@
         <v>238626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>417</v>
@@ -5019,13 +5049,13 @@
         <v>453666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5070,13 @@
         <v>297333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -5055,13 +5085,13 @@
         <v>306258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -5070,13 +5100,13 @@
         <v>603590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5174,13 @@
         <v>133038</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -5159,13 +5189,13 @@
         <v>154676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -5174,13 +5204,13 @@
         <v>287714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5225,13 @@
         <v>237964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -5210,13 +5240,13 @@
         <v>241197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -5225,13 +5255,13 @@
         <v>479161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5329,13 @@
         <v>127086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -5314,13 +5344,13 @@
         <v>169323</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>283</v>
@@ -5329,13 +5359,13 @@
         <v>296409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5380,13 @@
         <v>250096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>283</v>
@@ -5365,10 +5395,10 @@
         <v>335504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>373</v>
@@ -5487,10 +5517,10 @@
         <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5535,13 @@
         <v>1577930</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>1528</v>
@@ -5520,28 +5550,28 @@
         <v>1623642</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>3025</v>
       </c>
       <c r="N23" s="7">
-        <v>3201571</v>
+        <v>3201572</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5613,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5619,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084BB275-70D7-4BC0-8D1D-8AC18975B5A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F8FBA-F59B-47E5-A46D-620014629262}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5773,13 @@
         <v>247219</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
@@ -5758,13 +5788,13 @@
         <v>254712</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>261</v>
@@ -5773,13 +5803,13 @@
         <v>501931</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5824,13 @@
         <v>110539</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
@@ -5809,13 +5839,13 @@
         <v>89784</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
@@ -5824,13 +5854,13 @@
         <v>200323</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5928,13 @@
         <v>266598</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -5913,13 +5943,13 @@
         <v>322945</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>490</v>
@@ -5928,13 +5958,13 @@
         <v>589543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5979,13 @@
         <v>140602</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -5964,13 +5994,13 @@
         <v>162930</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -5982,10 +6012,10 @@
         <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6083,13 @@
         <v>329070</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -6068,13 +6098,13 @@
         <v>360721</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -6083,13 +6113,13 @@
         <v>689791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6134,13 @@
         <v>215285</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -6119,13 +6149,13 @@
         <v>211475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>487</v>
@@ -6134,13 +6164,13 @@
         <v>426761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6238,13 @@
         <v>392861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>715</v>
@@ -6223,13 +6253,13 @@
         <v>445630</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>1112</v>
@@ -6238,13 +6268,13 @@
         <v>838490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6289,13 @@
         <v>309733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -6274,13 +6304,13 @@
         <v>288177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -6289,13 +6319,13 @@
         <v>597910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6393,13 @@
         <v>302249</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>566</v>
@@ -6378,28 +6408,28 @@
         <v>328802</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>911</v>
       </c>
       <c r="N16" s="7">
-        <v>631052</v>
+        <v>631051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6444,13 @@
         <v>282521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -6429,13 +6459,13 @@
         <v>253541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
@@ -6444,13 +6474,13 @@
         <v>536062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +6522,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6518,13 +6548,13 @@
         <v>313625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>766</v>
@@ -6533,13 +6563,13 @@
         <v>415186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>1218</v>
@@ -6548,13 +6578,13 @@
         <v>728812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6599,13 @@
         <v>367591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
         <v>891</v>
@@ -6584,13 +6614,13 @@
         <v>582944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>1442</v>
@@ -6599,13 +6629,13 @@
         <v>950534</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6703,13 @@
         <v>1851621</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>3035</v>
@@ -6688,13 +6718,13 @@
         <v>2127998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>4857</v>
@@ -6703,13 +6733,13 @@
         <v>3979619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6754,13 @@
         <v>1426271</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H23" s="7">
         <v>2182</v>
@@ -6739,13 +6769,13 @@
         <v>1588850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>3614</v>
@@ -6754,13 +6784,13 @@
         <v>3015121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC4F092-CEA7-46C2-8C02-43CE2BDDEF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CE69DC-9B45-43A8-A2DF-E1A9A9DA5D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C29B529-FC59-4ADC-A42F-0B5A8BAA7502}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB93D25-D63F-4085-8EC4-BA16F434FB34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="593">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>32,78%</t>
@@ -191,7 +191,7 @@
     <t>66,9%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>30,0%</t>
@@ -248,7 +248,7 @@
     <t>71,78%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>25,81%</t>
@@ -305,7 +305,7 @@
     <t>75,58%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>26,35%</t>
@@ -362,61 +362,118 @@
     <t>79,58%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>29,82%</t>
@@ -749,58 +806,112 @@
     <t>76,86%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>29,43%</t>
@@ -1130,46 +1241,112 @@
     <t>65,89%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>40,78%</t>
@@ -1223,364 +1400,424 @@
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
   </si>
   <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
   </si>
   <si>
     <t>64,56%</t>
   </si>
   <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
     <t>63,04%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
   </si>
   <si>
     <t>58,63%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>52,77%</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +2229,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511345BD-7BF7-42ED-9F1A-40362696C961}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A379EF2B-7A75-4E8D-AB47-36882BD262B3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2194,7 +2431,7 @@
         <v>424</v>
       </c>
       <c r="N5" s="7">
-        <v>408667</v>
+        <v>408666</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2245,7 +2482,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2885,10 +3122,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>68773</v>
+        <v>46162</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2900,10 +3137,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I19" s="7">
-        <v>83760</v>
+        <v>49904</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2915,10 +3152,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="N19" s="7">
-        <v>152533</v>
+        <v>96066</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2936,10 +3173,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="D20" s="7">
-        <v>270756</v>
+        <v>166603</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2951,10 +3188,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="I20" s="7">
-        <v>370455</v>
+        <v>196103</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2966,10 +3203,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>644</v>
+        <v>384</v>
       </c>
       <c r="N20" s="7">
-        <v>641211</v>
+        <v>362706</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2987,10 +3224,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3002,10 +3239,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>454215</v>
+        <v>246007</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3254,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>797</v>
+        <v>485</v>
       </c>
       <c r="N21" s="7">
-        <v>793744</v>
+        <v>458772</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3034,55 +3271,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>713</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>732331</v>
+        <v>22611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>839</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7">
-        <v>860064</v>
+        <v>33857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1552</v>
+        <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>1592395</v>
+        <v>56468</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3328,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1695</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7">
-        <v>1723914</v>
+        <v>104153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1839</v>
+        <v>153</v>
       </c>
       <c r="I23" s="7">
-        <v>1879942</v>
+        <v>174351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3534</v>
+        <v>260</v>
       </c>
       <c r="N23" s="7">
-        <v>3603857</v>
+        <v>278504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,63 +3379,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>713</v>
+      </c>
+      <c r="D25" s="7">
+        <v>732331</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>839</v>
+      </c>
+      <c r="I25" s="7">
+        <v>860064</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1592395</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1695</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1723914</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1839</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1879942</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3534</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3603857</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2408</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2456245</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2678</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740006</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5086</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5196252</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3211,8 +3604,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B0741D-2A1D-41C6-B8A5-F5B3C8361835}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D15226-345F-4455-BE29-019D7F6B0E7D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3228,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3728,13 @@
         <v>170735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>166</v>
@@ -3350,13 +3743,13 @@
         <v>170026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>332</v>
@@ -3365,13 +3758,13 @@
         <v>340760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,28 +3779,28 @@
         <v>208441</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>200964</v>
+        <v>200965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>403</v>
@@ -3416,13 +3809,13 @@
         <v>409406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3842,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3490,13 +3883,13 @@
         <v>205398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>212</v>
@@ -3505,13 +3898,13 @@
         <v>229610</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>406</v>
@@ -3520,13 +3913,13 @@
         <v>435008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3934,13 @@
         <v>391869</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
@@ -3556,13 +3949,13 @@
         <v>330241</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -3571,13 +3964,13 @@
         <v>722110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +4038,13 @@
         <v>177807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>236</v>
@@ -3660,13 +4053,13 @@
         <v>250234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>406</v>
@@ -3675,13 +4068,13 @@
         <v>428041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +4089,13 @@
         <v>408844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>384</v>
@@ -3711,13 +4104,13 @@
         <v>408222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>777</v>
@@ -3726,13 +4119,13 @@
         <v>817066</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4193,13 @@
         <v>142362</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
@@ -3815,13 +4208,13 @@
         <v>191092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -3830,13 +4223,13 @@
         <v>333454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,16 +4241,16 @@
         <v>358</v>
       </c>
       <c r="D14" s="7">
-        <v>400478</v>
+        <v>400477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -3866,13 +4259,13 @@
         <v>371188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -3881,13 +4274,13 @@
         <v>771665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +4292,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3955,13 +4348,13 @@
         <v>91513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3970,13 +4363,13 @@
         <v>107970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3985,13 +4378,13 @@
         <v>199482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4399,13 @@
         <v>269797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -4021,13 +4414,13 @@
         <v>282745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4036,13 +4429,13 @@
         <v>552543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,49 +4497,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>69954</v>
+        <v>44384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I19" s="7">
-        <v>127682</v>
+        <v>68600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="N19" s="7">
-        <v>197636</v>
+        <v>112984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,49 +4548,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>341</v>
+        <v>199</v>
       </c>
       <c r="D20" s="7">
-        <v>377462</v>
+        <v>218106</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>444</v>
+        <v>225</v>
       </c>
       <c r="I20" s="7">
-        <v>475320</v>
+        <v>231989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>785</v>
+        <v>424</v>
       </c>
       <c r="N20" s="7">
-        <v>852782</v>
+        <v>450095</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,10 +4599,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4614,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>564</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>603002</v>
+        <v>300589</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4236,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>968</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>1050418</v>
+        <v>563079</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,55 +4646,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>801</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>857768</v>
+        <v>25570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>998</v>
+        <v>54</v>
       </c>
       <c r="I22" s="7">
-        <v>1076613</v>
+        <v>59082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>1799</v>
+        <v>77</v>
       </c>
       <c r="N22" s="7">
-        <v>1934381</v>
+        <v>84652</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,49 +4703,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1935</v>
+        <v>142</v>
       </c>
       <c r="D23" s="7">
-        <v>2056890</v>
+        <v>159356</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
-        <v>1916</v>
+        <v>219</v>
       </c>
       <c r="I23" s="7">
-        <v>2068681</v>
+        <v>243331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
-        <v>3851</v>
+        <v>361</v>
       </c>
       <c r="N23" s="7">
-        <v>4125572</v>
+        <v>402687</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,63 +4754,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>273</v>
+      </c>
+      <c r="I24" s="7">
+        <v>302413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>438</v>
+      </c>
+      <c r="N24" s="7">
+        <v>487339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>801</v>
+      </c>
+      <c r="D25" s="7">
+        <v>857768</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="7">
+        <v>998</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1076613</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1799</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1934381</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1935</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2056891</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1916</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2068682</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3851</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4125572</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2736</v>
       </c>
-      <c r="D24" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2914659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2914</v>
       </c>
-      <c r="I24" s="7">
-        <v>3145294</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3145295</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5650</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6059953</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4430,8 +4979,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C82E02-43EB-410E-9D4B-8CAC3D0D8140}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A073A0-0E39-4510-8CA2-2A4E59436D78}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4447,7 +4996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +5103,13 @@
         <v>186311</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>193</v>
@@ -4569,13 +5118,13 @@
         <v>189524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>367</v>
@@ -4584,13 +5133,13 @@
         <v>375836</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +5154,13 @@
         <v>166529</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>166</v>
@@ -4620,13 +5169,13 @@
         <v>162406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -4635,13 +5184,13 @@
         <v>328934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +5258,13 @@
         <v>197645</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>232</v>
@@ -4724,13 +5273,13 @@
         <v>222579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>425</v>
@@ -4739,13 +5288,13 @@
         <v>420224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +5309,13 @@
         <v>295433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>278</v>
@@ -4775,13 +5324,13 @@
         <v>274141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>560</v>
@@ -4790,13 +5339,13 @@
         <v>569573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +5413,13 @@
         <v>227284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>271</v>
@@ -4879,13 +5428,13 @@
         <v>268944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>487</v>
@@ -4894,13 +5443,13 @@
         <v>496228</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +5464,13 @@
         <v>330576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4930,13 +5479,13 @@
         <v>304136</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>620</v>
@@ -4945,13 +5494,13 @@
         <v>634712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5568,13 @@
         <v>215039</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -5034,13 +5583,13 @@
         <v>238626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>417</v>
@@ -5049,13 +5598,13 @@
         <v>453666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5619,13 @@
         <v>297333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -5085,13 +5634,13 @@
         <v>306258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -5100,13 +5649,13 @@
         <v>603590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5723,13 @@
         <v>133038</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -5189,13 +5738,13 @@
         <v>154676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -5204,13 +5753,13 @@
         <v>287714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5774,13 @@
         <v>237964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -5240,13 +5789,13 @@
         <v>241197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -5255,13 +5804,13 @@
         <v>479161</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5872,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7">
-        <v>127086</v>
+        <v>82370</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>169323</v>
+        <v>95491</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="N19" s="7">
-        <v>296409</v>
+        <v>177862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5923,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>265</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7">
-        <v>250096</v>
+        <v>147755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="I20" s="7">
-        <v>335504</v>
+        <v>181457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
-        <v>548</v>
+        <v>315</v>
       </c>
       <c r="N20" s="7">
-        <v>585600</v>
+        <v>329212</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5974,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5989,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5455,10 +6004,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5472,55 +6021,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1033</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
-        <v>1086404</v>
+        <v>44716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
-        <v>1199</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>1243673</v>
+        <v>73832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
-        <v>2232</v>
+        <v>112</v>
       </c>
       <c r="N22" s="7">
-        <v>2330077</v>
+        <v>118548</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +6078,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1497</v>
+        <v>121</v>
       </c>
       <c r="D23" s="7">
-        <v>1577930</v>
+        <v>102341</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
-        <v>1528</v>
+        <v>112</v>
       </c>
       <c r="I23" s="7">
-        <v>1623642</v>
+        <v>154047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
-        <v>3025</v>
+        <v>233</v>
       </c>
       <c r="N23" s="7">
-        <v>3201572</v>
+        <v>256388</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,63 +6129,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1033</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1086404</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1199</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1243673</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2232</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2330077</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1497</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1577929</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1528</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1623642</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3025</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3201571</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5649,8 +6354,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F8FBA-F59B-47E5-A46D-620014629262}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76BC07E-0BB3-4B3F-8F5C-51A65F4C87D0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5666,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5770,46 +6475,46 @@
         <v>114</v>
       </c>
       <c r="D4" s="7">
-        <v>247219</v>
+        <v>261780</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7">
         <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>254712</v>
+        <v>223902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>261</v>
       </c>
       <c r="N4" s="7">
-        <v>501931</v>
+        <v>485682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,46 +6526,46 @@
         <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>110539</v>
+        <v>121667</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7">
         <v>48</v>
       </c>
       <c r="I5" s="7">
-        <v>89784</v>
+        <v>79639</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>200323</v>
+        <v>201306</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +6577,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5887,7 +6592,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5902,7 +6607,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5925,46 +6630,46 @@
         <v>191</v>
       </c>
       <c r="D7" s="7">
-        <v>266598</v>
+        <v>263659</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
       </c>
       <c r="I7" s="7">
-        <v>322945</v>
+        <v>352477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="M7" s="7">
         <v>490</v>
       </c>
       <c r="N7" s="7">
-        <v>589543</v>
+        <v>616136</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,46 +6681,46 @@
         <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>140602</v>
+        <v>138692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
       </c>
       <c r="I8" s="7">
-        <v>162930</v>
+        <v>147215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
       </c>
       <c r="N8" s="7">
-        <v>303532</v>
+        <v>285906</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>484</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>485</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6732,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6042,7 +6747,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6057,7 +6762,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6080,46 +6785,46 @@
         <v>323</v>
       </c>
       <c r="D10" s="7">
-        <v>329070</v>
+        <v>317136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
       </c>
       <c r="I10" s="7">
-        <v>360721</v>
+        <v>334940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
       </c>
       <c r="N10" s="7">
-        <v>689791</v>
+        <v>652076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,46 +6836,46 @@
         <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>215285</v>
+        <v>206906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
       </c>
       <c r="I11" s="7">
-        <v>211475</v>
+        <v>196941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="M11" s="7">
         <v>487</v>
       </c>
       <c r="N11" s="7">
-        <v>426761</v>
+        <v>403847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6887,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6197,7 +6902,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6212,7 +6917,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6235,46 +6940,46 @@
         <v>397</v>
       </c>
       <c r="D13" s="7">
-        <v>392861</v>
+        <v>373589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="H13" s="7">
         <v>715</v>
       </c>
       <c r="I13" s="7">
-        <v>445630</v>
+        <v>411195</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="M13" s="7">
         <v>1112</v>
       </c>
       <c r="N13" s="7">
-        <v>838490</v>
+        <v>784783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,46 +6991,46 @@
         <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>309733</v>
+        <v>489339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
       </c>
       <c r="I14" s="7">
-        <v>288177</v>
+        <v>289397</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
       </c>
       <c r="N14" s="7">
-        <v>597910</v>
+        <v>778736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +7042,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6352,7 +7057,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6367,7 +7072,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6390,46 +7095,46 @@
         <v>345</v>
       </c>
       <c r="D16" s="7">
-        <v>302249</v>
+        <v>281785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>566</v>
       </c>
       <c r="I16" s="7">
-        <v>328802</v>
+        <v>300786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>911</v>
       </c>
       <c r="N16" s="7">
-        <v>631051</v>
+        <v>582571</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,46 +7146,46 @@
         <v>300</v>
       </c>
       <c r="D17" s="7">
-        <v>282521</v>
+        <v>264794</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
       </c>
       <c r="I17" s="7">
-        <v>253541</v>
+        <v>233740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="M17" s="7">
         <v>715</v>
       </c>
       <c r="N17" s="7">
-        <v>536062</v>
+        <v>498534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +7197,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6507,7 +7212,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6522,7 +7227,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6542,49 +7247,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>313625</v>
+        <v>178306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="H19" s="7">
-        <v>766</v>
+        <v>423</v>
       </c>
       <c r="I19" s="7">
-        <v>415186</v>
+        <v>205787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
-        <v>1218</v>
+        <v>698</v>
       </c>
       <c r="N19" s="7">
-        <v>728812</v>
+        <v>384093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,49 +7298,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>281</v>
+      </c>
+      <c r="D20" s="7">
+        <v>181047</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H20" s="7">
+        <v>384</v>
+      </c>
+      <c r="I20" s="7">
+        <v>394122</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D20" s="7">
-        <v>367591</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="H20" s="7">
-        <v>891</v>
-      </c>
-      <c r="I20" s="7">
-        <v>582944</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
-        <v>1442</v>
+        <v>665</v>
       </c>
       <c r="N20" s="7">
-        <v>950534</v>
+        <v>575169</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,10 +7349,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1003</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>681216</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6659,10 +7364,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6674,10 +7379,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2660</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1679346</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,55 +7396,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1822</v>
+        <v>177</v>
       </c>
       <c r="D22" s="7">
-        <v>1851621</v>
+        <v>114956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
-        <v>3035</v>
+        <v>343</v>
       </c>
       <c r="I22" s="7">
-        <v>2127998</v>
+        <v>168754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
-        <v>4857</v>
+        <v>520</v>
       </c>
       <c r="N22" s="7">
-        <v>3979619</v>
+        <v>283710</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,49 +7453,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1432</v>
+        <v>270</v>
       </c>
       <c r="D23" s="7">
-        <v>1426271</v>
+        <v>161270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H23" s="7">
         <v>507</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2182</v>
-      </c>
       <c r="I23" s="7">
-        <v>1588850</v>
+        <v>239933</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
-        <v>3614</v>
+        <v>777</v>
       </c>
       <c r="N23" s="7">
-        <v>3015121</v>
+        <v>401203</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,63 +7504,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>447</v>
+      </c>
+      <c r="D24" s="7">
+        <v>276226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684913</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1822</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1791211</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3035</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1997841</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4857</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3789051</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1432</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1563715</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2182</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1580986</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3614</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3144701</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3254</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277892</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354926</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8471</v>
       </c>
-      <c r="N24" s="7">
-        <v>6994740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6933752</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
